--- a/biology/Botanique/Rhodophytina/Rhodophytina.xlsx
+++ b/biology/Botanique/Rhodophytina/Rhodophytina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhodophytina sont une sous-division des Rhodophyta comprenant des algues rouges unicellulaires (Porphyridiophyceae, Rhodellophyceae et Stylonematophyceae) et pluricellulaires (Bangiophyceae, Compsopogonophyceae et Florideophyceae). Les classes d’algues pluricellulaires sont parfois placées dans le sous-embranchement des Eurhodophytina.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 août 2013)[1] et World Register of Marine Species                               (5 août 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 août 2013) et World Register of Marine Species                               (5 août 2013) :
 classe des Porphyridiophyceae Kylin
 classe des Rhodellophyceae T.Cavalier-Smith
 classe des Stylonematophyceae H.S.Yoon, K.M.Müller, R.G.Sheath, F.D.Ott &amp; D.Bhattacharya
-Selon ITIS      (5 août 2013)[3] et Yoon et al. (2006)[4] :
+Selon ITIS      (5 août 2013) et Yoon et al. (2006) :
 classe des Bangiophyceae (placé sous le sous-embranchement des Eurhodophytina par AlgaeBase)
 classe des Compsopogonophyceae (placé sous le sous-embranchement des Eurhodophytina par AlgaeBase)
 classe des Florideophyceae (placé sous le sous-embranchement des Eurhodophytina par AlgaeBase)
